--- a/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
+++ b/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -665,8 +665,11 @@
       <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AH1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
+++ b/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -115,13 +115,19 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +196,15 @@
       <name val="Adobe Gothic Std B"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
@@ -251,6 +266,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -554,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH1" activeCellId="1" sqref="AI1 AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +581,7 @@
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -665,8 +681,14 @@
       <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
+++ b/D-DHelper/D-DHelper/Materials/CharactersBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH1" activeCellId="1" sqref="AI1 AH1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +692,62 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
